--- a/biology/Médecine/1529_en_santé_et_médecine/1529_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1529_en_santé_et_médecine/1529_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1529_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1529_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1529 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1529_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1529_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Fondation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>À Chalon-sur-Saône en Bourgogne, « François Ier signe les lettres patentes autorisant la construction d'un nouvel hôpital à la pointe ouest de l'île Saint-Laurent », établissement qui restera en service jusqu'en 2011[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>À Chalon-sur-Saône en Bourgogne, « François Ier signe les lettres patentes autorisant la construction d'un nouvel hôpital à la pointe ouest de l'île Saint-Laurent », établissement qui restera en service jusqu'en 2011.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1529_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1529_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,14 +555,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Mai : quatrième épidémie de suette anglaise. Elle passe à Hambourg le 25 juillet puis se répand sur les rives de la Baltique et en Allemagne jusqu'en Autriche et en Suisse[2].
-2 juin : Guillaume Rondelet s'inscrit à l'université de médecine de Montpellier[3].
-3 octobre :Nostradamus se réinscrit à l'université de Montpellier pour y préparer le doctorat en médecine, qu'il obtiendra en 1532[4].
-Louis II Saporta donne, pour la dernière année, des cours à l'université de médecine de Montpellier[5].
-À Nuremberg a lieu « la première préparation publique connue » de la thériaque en Allemagne[6].
-Vers 1529 ? : Ambroise Paré entre comme compagnon chirurgien à l’Hôtel-Dieu[7],[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mai : quatrième épidémie de suette anglaise. Elle passe à Hambourg le 25 juillet puis se répand sur les rives de la Baltique et en Allemagne jusqu'en Autriche et en Suisse.
+2 juin : Guillaume Rondelet s'inscrit à l'université de médecine de Montpellier.
+3 octobre :Nostradamus se réinscrit à l'université de Montpellier pour y préparer le doctorat en médecine, qu'il obtiendra en 1532.
+Louis II Saporta donne, pour la dernière année, des cours à l'université de médecine de Montpellier.
+À Nuremberg a lieu « la première préparation publique connue » de la thériaque en Allemagne.
+Vers 1529 ? : Ambroise Paré entre comme compagnon chirurgien à l’Hôtel-Dieu,.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1529_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1529_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Euricius Cordus, professeur à Marbourg, fait imprimer à Nuremberg[10] et à Fribourg  son ouvrage sur le traitement de la suette dite « anglaise[11] ».</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Euricius Cordus, professeur à Marbourg, fait imprimer à Nuremberg et à Fribourg  son ouvrage sur le traitement de la suette dite « anglaise ».</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1529_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1529_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,11 +624,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>16 décembre : Laurent Joubert (mort en 1583), médecin français[12].
-Barthélemy Cabrol (mort en 1603), chirurgien anatomiste, « premier titulaire à l'emploi de démonstrateur royal d'anatomie auprès de l'université de médecine de Montpellier par un édit de création d'Henri IV[13] ».
-Castore Durante (mort en 1590), médecin, herboriste et poète de la Renaissance italienne, dans les États pontificaux[14],[15].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>16 décembre : Laurent Joubert (mort en 1583), médecin français.
+Barthélemy Cabrol (mort en 1603), chirurgien anatomiste, « premier titulaire à l'emploi de démonstrateur royal d'anatomie auprès de l'université de médecine de Montpellier par un édit de création d'Henri IV ».
+Castore Durante (mort en 1590), médecin, herboriste et poète de la Renaissance italienne, dans les États pontificaux,.</t>
         </is>
       </c>
     </row>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1529_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1529_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,9 +658,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hans von Gersdorff (né vers 1455), chirurgien auteur du Feldbuch der Wundarzney (« Manuel de chirurgie[16] »).
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hans von Gersdorff (né vers 1455), chirurgien auteur du Feldbuch der Wundarzney (« Manuel de chirurgie »).
 </t>
         </is>
       </c>
